--- a/classification_report.xlsx
+++ b/classification_report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\Final Year Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769C9377-0D61-4FE6-A058-74B81F67B984}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D8121A-457A-4437-B718-746B341300C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A90DD86C-F640-408F-A35C-917AF0C745E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A90DD86C-F640-408F-A35C-917AF0C745E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="29">
   <si>
     <t>Sarcastic</t>
   </si>
@@ -96,6 +96,30 @@
   </si>
   <si>
     <t>lr_9192_reddit.p</t>
+  </si>
+  <si>
+    <t>SVC (1000)</t>
+  </si>
+  <si>
+    <t>SVC (Reddit, 1000)</t>
+  </si>
+  <si>
+    <t>LR (1000)</t>
+  </si>
+  <si>
+    <t>LR (Reddit, 1000)</t>
+  </si>
+  <si>
+    <t>SVC (10,000)</t>
+  </si>
+  <si>
+    <t>SVC (Reddit, 10,000)</t>
+  </si>
+  <si>
+    <t>LR (10,000)</t>
+  </si>
+  <si>
+    <t>LR (Reddit, 10,000)</t>
   </si>
 </sst>
 </file>
@@ -504,28 +528,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>svc_937.p</c:v>
+                  <c:v>SVC (1000)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>svc_937_reddit.p</c:v>
+                  <c:v>SVC (Reddit, 1000)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>lr_937.p</c:v>
+                  <c:v>LR (1000)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>lr_937_reddit.p</c:v>
+                  <c:v>LR (Reddit, 1000)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>svc_9192.p</c:v>
+                  <c:v>SVC (10,000)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>svc_9192_reddit.p</c:v>
+                  <c:v>SVC (Reddit, 10,000)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>lr_9192.p</c:v>
+                  <c:v>LR (10,000)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>lr_9192_reddit.p</c:v>
+                  <c:v>LR (Reddit, 10,000)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -599,28 +623,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>svc_937.p</c:v>
+                  <c:v>SVC (1000)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>svc_937_reddit.p</c:v>
+                  <c:v>SVC (Reddit, 1000)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>lr_937.p</c:v>
+                  <c:v>LR (1000)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>lr_937_reddit.p</c:v>
+                  <c:v>LR (Reddit, 1000)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>svc_9192.p</c:v>
+                  <c:v>SVC (10,000)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>svc_9192_reddit.p</c:v>
+                  <c:v>SVC (Reddit, 10,000)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>lr_9192.p</c:v>
+                  <c:v>LR (10,000)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>lr_9192_reddit.p</c:v>
+                  <c:v>LR (Reddit, 10,000)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1744,8 +1768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB208E63-8C62-4321-8A34-59F733CF2661}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2988,7 +3012,7 @@
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B48" s="4">
         <f>AVERAGE(0.6,0.6,0.64,0.62,0.62)</f>
@@ -3008,7 +3032,7 @@
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B49" s="4">
         <f>AVERAGE(0.62,0.56,0.53,0.6,0.58)</f>
@@ -3028,7 +3052,7 @@
     </row>
     <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B50" s="4">
         <f>AVERAGE(0.63,0.61,0.62,0.61,0.64)</f>
@@ -3041,7 +3065,7 @@
     </row>
     <row r="51" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B51" s="8">
         <f>AVERAGE(0.58,0.57)</f>
@@ -3054,7 +3078,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B52" s="4">
         <f>AVERAGE(0.63,0.63,0.65,0.63,0.64)</f>
@@ -3067,7 +3091,7 @@
     </row>
     <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B53" s="4">
         <f>AVERAGE(0.64,0.64,0.64,0.63,0.64)</f>
@@ -3080,7 +3104,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B54" s="4">
         <f>AVERAGE(0.65,0.65,0.67,0.64,0.64)</f>
@@ -3093,7 +3117,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B55" s="8">
         <f>AVERAGE(0.65,0.65,0.66,0.64,0.64)</f>
